--- a/Tools/Config/Datas/卡池配置.xlsx
+++ b/Tools/Config/Datas/卡池配置.xlsx
@@ -4,20 +4,128 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="14985" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="品质概率" sheetId="1" r:id="rId1"/>
-    <sheet name="武器概率" sheetId="2" r:id="rId2"/>
+    <sheet name="奖励池" sheetId="3" r:id="rId1"/>
+    <sheet name="品质概率" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>##var</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>itemTypePowerList#sep=","</t>
+  </si>
+  <si>
+    <t>qualityPowerList#sep=","</t>
+  </si>
+  <si>
+    <t>*bannerItemList</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>奖励内容池id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>类型权重(全1表示不加权)</t>
+  </si>
+  <si>
+    <t>品质权重(全1表示不加权)</t>
+  </si>
+  <si>
+    <t>物品id</t>
+  </si>
+  <si>
+    <t>物品类型</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>normal_ches</t>
+  </si>
+  <si>
+    <t>普通宝箱池</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>weapon1</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>weapon2</t>
+  </si>
+  <si>
+    <t>weapon3</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>weapon4</t>
+  </si>
+  <si>
+    <t>weapon5</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>weapon6</t>
+  </si>
+  <si>
+    <t>weapon7</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>weapon8</t>
+  </si>
+  <si>
+    <t>normal_ches2</t>
   </si>
   <si>
     <r>
@@ -42,74 +150,28 @@
     </r>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>*bannerItemList</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>itemType</t>
+    <t>rewardId</t>
   </si>
   <si>
     <t>qualityPowerList</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这是i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>权重</t>
+    <t>卡池id</t>
+  </si>
+  <si>
+    <t>奖励内容id(常驻)</t>
   </si>
   <si>
     <t>类型</t>
   </si>
   <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>紫</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
     <t>chest_small</t>
   </si>
   <si>
+    <t>normal_chest</t>
+  </si>
+  <si>
     <t>小宝箱</t>
-  </si>
-  <si>
-    <t>武器</t>
   </si>
   <si>
     <t>材料</t>
@@ -290,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +367,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD78D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,12 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,16 +732,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,10 +753,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,28 +777,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -736,40 +810,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,17 +846,23 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
@@ -802,13 +876,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -862,6 +939,13 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F45C5C"/>
+      <color rgb="004E024D"/>
+      <color rgb="00AD78D7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1128,31 +1212,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="8.125" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="28" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.125" customWidth="1"/>
+    <col min="2" max="4" width="22" customWidth="1"/>
+    <col min="5" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="8" width="24.375" customWidth="1"/>
+    <col min="9" max="9" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:39">
+    <row r="1" s="1" customFormat="1" spans="1:43">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1162,23 +1236,27 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -1200,34 +1278,40 @@
       <c r="AK1"/>
       <c r="AL1"/>
       <c r="AM1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:39">
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:43">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="9"/>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
@@ -1249,44 +1333,48 @@
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:39">
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:43">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="9"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -1308,383 +1396,163 @@
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4"/>
-      <c r="M4" s="4"/>
-      <c r="N4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="M5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6"/>
-      <c r="M6" s="4"/>
-      <c r="N6"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="4"/>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="M7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5">
-        <v>4</v>
-      </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8"/>
-      <c r="M8" s="4"/>
-      <c r="N8"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="4"/>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>3</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10"/>
-      <c r="M10" s="4"/>
-      <c r="N10"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="7:17">
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11"/>
-      <c r="M11" s="4"/>
-      <c r="N11"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="3:17">
-      <c r="C12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12"/>
-      <c r="M12" s="4"/>
-      <c r="N12"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="7:17">
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13"/>
-      <c r="M13" s="4"/>
-      <c r="N13"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="7:17">
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14"/>
-      <c r="M14" s="4"/>
-      <c r="N14"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="3:17">
-      <c r="C15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15"/>
-      <c r="M15" s="4"/>
-      <c r="N15"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="7:17">
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16"/>
-      <c r="M16" s="4"/>
-      <c r="N16"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="3:17">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17"/>
-      <c r="M17" s="4"/>
-      <c r="N17"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="3:17">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18"/>
-      <c r="M18" s="4"/>
-      <c r="N18"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="3:17">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19"/>
-      <c r="M19" s="4"/>
-      <c r="N19"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="7:13">
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="7:13">
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="7:13">
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="7:13">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="7:13">
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24"/>
-      <c r="M24" s="4"/>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="10">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="10">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="11">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="11">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="12">
+        <v>10</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="12">
+        <v>10</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="F2:I2"/>
+  <mergeCells count="1">
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1692,15 +1560,552 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="12" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="5.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:40">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="8"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:40">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="8"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:40">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="8"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="N4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="8:18">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="4:18">
+      <c r="D12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="N12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="8:18">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="8:18">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="4:18">
+      <c r="D15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="8:18">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="4:18">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="4:18">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="8:14">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="8:14">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="8:14">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="8:14">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="8:14">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="N24" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Tools/Config/Datas/卡池配置.xlsx
+++ b/Tools/Config/Datas/卡池配置.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14985" windowHeight="12285"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="奖励池" sheetId="3" r:id="rId1"/>
     <sheet name="品质概率" sheetId="1" r:id="rId2"/>
+    <sheet name="保底配置" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -26,6 +27,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>hasConfig</t>
+  </si>
+  <si>
     <t>itemTypePowerList#sep=","</t>
   </si>
   <si>
@@ -54,6 +58,9 @@
   </si>
   <si>
     <t>名字</t>
+  </si>
+  <si>
+    <t>保底配置</t>
   </si>
   <si>
     <t>类型权重(全1表示不加权)</t>
@@ -187,6 +194,15 @@
   </si>
   <si>
     <t>大宝箱</t>
+  </si>
+  <si>
+    <t>timeList</t>
+  </si>
+  <si>
+    <t>targetlist</t>
+  </si>
+  <si>
+    <t>保底</t>
   </si>
 </sst>
 </file>
@@ -352,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,109 +383,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBE8FBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAD78D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,10 +838,7 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,41 +850,45 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,6 +967,7 @@
       <color rgb="00F45C5C"/>
       <color rgb="004E024D"/>
       <color rgb="00AD78D7"/>
+      <color rgb="00BE8FBF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1212,7 +1236,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1220,35 +1244,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="27.75" customWidth="1"/>
-    <col min="7" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="48.5" customWidth="1"/>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="27.75" customWidth="1"/>
+    <col min="8" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:43">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:44">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1"/>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -1282,28 +1308,29 @@
       <c r="AO1"/>
       <c r="AP1"/>
       <c r="AQ1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:43">
-      <c r="A2" s="2" t="s">
+      <c r="AR1"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:44">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1337,36 +1364,39 @@
       <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:43">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="AR2"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:44">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3"/>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1400,157 +1430,161 @@
       <c r="AO3"/>
       <c r="AP3"/>
       <c r="AQ3"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="AR3"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="6:9">
-      <c r="F5" t="s">
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10">
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="5:9">
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="10">
+    </row>
+    <row r="6" spans="6:10">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="11">
         <v>10</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="6:10">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="11">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="12">
+        <v>10</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="6:10">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="12">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="13">
+        <v>10</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="13">
+        <v>10</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="5:9">
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9">
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="11">
-        <v>10</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9">
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="11">
-        <v>10</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="12">
-        <v>10</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="12">
-        <v>10</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
+      <c r="J13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1584,36 +1618,36 @@
     <col min="18" max="18" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:40">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:40">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8"/>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9"/>
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
@@ -1636,34 +1670,34 @@
       <c r="AM1"/>
       <c r="AN1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:40">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:40">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="8"/>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="9"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
@@ -1686,46 +1720,46 @@
       <c r="AM2"/>
       <c r="AN2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:40">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:40">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="8"/>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="9"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
@@ -1749,354 +1783,354 @@
       <c r="AN3"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>5</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>5</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="N5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>5</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>4</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>5</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>4</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="N8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>4</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>5</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="8:18">
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="4:18">
-      <c r="D12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="N12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="8:18">
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="N13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="N13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="8:18">
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="4:18">
-      <c r="D15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="N15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="8:18">
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="N16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="4:18">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="N17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="N17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="4:18">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="N18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="4:18">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="N19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="8:14">
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="N20" s="4"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="8:14">
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="N21" s="4"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="8:14">
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="N22" s="4"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="8:14">
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="N23" s="4"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="8:14">
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="N24" s="4"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="N24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2108,4 +2142,99 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="43.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Tools/Config/Datas/卡池配置.xlsx
+++ b/Tools/Config/Datas/卡池配置.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="奖励池" sheetId="3" r:id="rId1"/>
-    <sheet name="品质概率" sheetId="1" r:id="rId2"/>
-    <sheet name="保底配置" sheetId="4" r:id="rId3"/>
+    <sheet name="保底配置" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -27,10 +26,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>hasConfig</t>
-  </si>
-  <si>
-    <t>itemTypePowerList#sep=","</t>
+    <t>upConfig</t>
+  </si>
+  <si>
+    <t>*upList</t>
   </si>
   <si>
     <t>qualityPowerList#sep=","</t>
@@ -63,10 +62,7 @@
     <t>保底配置</t>
   </si>
   <si>
-    <t>类型权重(全1表示不加权)</t>
-  </si>
-  <si>
-    <t>品质权重(全1表示不加权)</t>
+    <t>品质权重(白,蓝,紫,金)</t>
   </si>
   <si>
     <t>物品id</t>
@@ -87,15 +83,12 @@
     <t>普通宝箱池</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1</t>
-  </si>
-  <si>
     <t>weapon1</t>
   </si>
   <si>
+    <t>60,30,8,2</t>
+  </si>
+  <si>
     <t>武器</t>
   </si>
   <si>
@@ -135,74 +128,25 @@
     <t>normal_ches2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
-    <t>rewardId</t>
-  </si>
-  <si>
-    <t>qualityPowerList</t>
-  </si>
-  <si>
-    <t>卡池id</t>
-  </si>
-  <si>
-    <t>奖励内容id(常驻)</t>
+    <t>*quaUpItemMap</t>
+  </si>
+  <si>
+    <t>*quaUpListMap</t>
   </si>
   <si>
     <t>类型</t>
   </si>
   <si>
-    <t>chest_small</t>
-  </si>
-  <si>
-    <t>normal_chest</t>
-  </si>
-  <si>
-    <t>小宝箱</t>
-  </si>
-  <si>
-    <t>材料</t>
-  </si>
-  <si>
-    <t>chest_mid</t>
-  </si>
-  <si>
-    <t>中宝箱</t>
-  </si>
-  <si>
-    <t>chest_big</t>
-  </si>
-  <si>
-    <t>大宝箱</t>
-  </si>
-  <si>
-    <t>timeList</t>
-  </si>
-  <si>
-    <t>targetlist</t>
-  </si>
-  <si>
-    <t>保底</t>
+    <t xml:space="preserve">开始,结束,目标(1,表示100%) </t>
+  </si>
+  <si>
+    <t>(概率) ; (武器1 , 武器2)</t>
+  </si>
+  <si>
+    <t>11,20,1</t>
+  </si>
+  <si>
+    <t>0.5;weapon1,weapon2</t>
   </si>
 </sst>
 </file>
@@ -580,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -601,41 +545,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -745,7 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,7 +684,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,28 +702,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,10 +732,10 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,28 +793,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1238,19 +1133,23 @@
   <sheetPr/>
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="2" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
     <col min="6" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="9" width="24.375" customWidth="1"/>
-    <col min="10" max="10" width="48.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="11" width="25.75" customWidth="1"/>
+    <col min="12" max="12" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:44">
+    <row r="1" s="4" customFormat="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,15 +1165,15 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -1310,7 +1209,7 @@
       <c r="AQ1"/>
       <c r="AR1"/>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:44">
+    <row r="2" s="4" customFormat="1" spans="1:44">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1265,7 @@
       <c r="AQ2"/>
       <c r="AR2"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:44">
+    <row r="3" s="4" customFormat="1" spans="1:44">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1379,23 +1278,21 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1434,152 +1331,155 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="6:10">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="6:10">
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="6:10">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5">
         <v>10</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="6:10">
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="11">
+    </row>
+    <row r="9" spans="6:10">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6">
         <v>10</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="6:10">
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="J9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="6:10">
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="J10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="12">
+    </row>
+    <row r="11" spans="6:10">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
         <v>10</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="6:10">
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="13">
-        <v>10</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="6:10">
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="13">
-        <v>10</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>36</v>
+      <c r="J11" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1594,646 +1494,124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
-    <col min="6" max="7" width="20.125" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="12" width="16.875" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="8.125" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="28" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="7" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:40">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
-      <c r="AJ1"/>
-      <c r="AK1"/>
-      <c r="AL1"/>
-      <c r="AM1"/>
-      <c r="AN1"/>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:40">
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="9"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:40">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="9"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6">
-        <v>5</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="N4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>4</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="N5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="N6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6">
-        <v>4</v>
-      </c>
-      <c r="J7" s="6">
-        <v>5</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>3</v>
-      </c>
-      <c r="I8" s="6">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>3</v>
-      </c>
-      <c r="I9" s="6">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6">
-        <v>5</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="8:18">
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="4:18">
-      <c r="D12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="8:18">
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="N13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="8:18">
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="N14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="4:18">
-      <c r="D15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="N15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="8:18">
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="N16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="4:18">
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="N17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="4:18">
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="N18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="4:18">
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="N19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="8:14">
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="8:14">
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="8:14">
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="8:14">
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="8:14">
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="N24" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="G2:J2"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="37.375" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="43.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
-        <v>50100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5">
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Tools/Config/Datas/卡池配置.xlsx
+++ b/Tools/Config/Datas/卡池配置.xlsx
@@ -140,7 +140,7 @@
     <t xml:space="preserve">开始,结束,目标(1,表示100%) </t>
   </si>
   <si>
-    <t>(概率) ; (武器1 , 武器2)</t>
+    <t>(概率) ; [分号]  (武器1 , [逗号] 武器2)</t>
   </si>
   <si>
     <t>11,20,1</t>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1497,16 +1497,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="37.375" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="42.875" customWidth="1"/>
-    <col min="6" max="7" width="43.625" customWidth="1"/>
+    <col min="6" max="6" width="43.5" customWidth="1"/>
+    <col min="7" max="7" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
